--- a/Level 9/Group E/Batch 2.xlsx
+++ b/Level 9/Group E/Batch 2.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="21260" activeTab="1"/>
+    <workbookView windowWidth="25170" windowHeight="12510"/>
   </bookViews>
   <sheets>
-    <sheet name="Put and Call Price" sheetId="2" r:id="rId1"/>
+    <sheet name="Chart1" sheetId="2" r:id="rId1"/>
     <sheet name="Chart Data" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Stock Price</t>
   </si>
@@ -25,47 +25,105 @@
   <si>
     <t>*Arr2</t>
   </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -73,36 +131,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -110,31 +139,30 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -142,59 +170,21 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -208,7 +198,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -220,13 +228,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -238,97 +336,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -340,25 +348,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -370,25 +378,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,6 +389,69 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -420,32 +473,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -460,192 +489,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -655,55 +645,55 @@
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -734,10 +724,13 @@
           <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -745,21 +738,26 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="en-US"/>
               <a:t>Put and Call Price</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" altLang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="line"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -775,6 +773,18 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:dLbls>
             <c:delete val="1"/>
           </c:dLbls>
@@ -944,148 +954,148 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>3.05867011259866e-31</c:v>
+                  <c:v>3.05867011259939e-31</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.50874781075163e-29</c:v>
+                  <c:v>7.50874781074955e-29</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.39062163411298e-27</c:v>
+                  <c:v>9.39062163411014e-27</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.76816820397579e-25</c:v>
+                  <c:v>6.76816820397573e-25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.08734862207871e-23</c:v>
+                  <c:v>3.08734862207936e-23</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.58524833708076e-22</c:v>
+                  <c:v>9.58524833707799e-22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.14514075790149e-20</c:v>
+                  <c:v>2.1451407579016e-20</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.62362109271685e-19</c:v>
+                  <c:v>3.62362109271756e-19</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.79652828350497e-18</c:v>
+                  <c:v>4.79652828350383e-18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.13087424830622e-17</c:v>
+                  <c:v>5.13087424830693e-17</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.55057692019475e-16</c:v>
+                  <c:v>4.55057692019494e-16</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.41899104695241e-15</c:v>
+                  <c:v>3.4189910469521e-15</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.216155419496e-14</c:v>
+                  <c:v>2.21615541949586e-14</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.25871500209699e-13</c:v>
+                  <c:v>1.25871500209702e-13</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.34869264630534e-13</c:v>
+                  <c:v>6.34869264630531e-13</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.87668148632475e-12</c:v>
+                  <c:v>2.87668148632497e-12</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.18281904759414e-11</c:v>
+                  <c:v>1.18281904759412e-11</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.4523095902896e-11</c:v>
+                  <c:v>4.45230959028935e-11</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.54615346298118e-10</c:v>
+                  <c:v>1.54615346298121e-10</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.98755202579273e-10</c:v>
+                  <c:v>4.9875520257926e-10</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.50356460427948e-9</c:v>
+                  <c:v>1.50356460427955e-9</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.25893304007247e-9</c:v>
+                  <c:v>4.25893304007263e-9</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.13898814502097e-8</c:v>
+                  <c:v>1.13898814502089e-8</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.88839890174721e-8</c:v>
+                  <c:v>2.88839890174723e-8</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6.97279111889587e-8</c:v>
+                  <c:v>6.97279111889579e-8</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.60803364964302e-7</c:v>
+                  <c:v>1.60803364964301e-7</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>3.55390333163147e-7</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7.54907479781543e-7</c:v>
+                  <c:v>7.5490747978155e-7</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.54526312824975e-6</c:v>
+                  <c:v>1.54526312824977e-6</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.05544653560435e-6</c:v>
+                  <c:v>3.05544653560433e-6</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5.84876746876384e-6</c:v>
+                  <c:v>5.84876746876386e-6</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.08603996476802e-5</c:v>
+                  <c:v>1.08603996476803e-5</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.95984714545931e-5</c:v>
+                  <c:v>1.95984714545932e-5</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.44296619825445e-5</c:v>
+                  <c:v>3.44296619825443e-5</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5.89738058627098e-5</c:v>
+                  <c:v>5.89738058627103e-5</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>9.86350206612632e-5</c:v>
+                  <c:v>9.86350206612641e-5</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.000161298935403706</c:v>
+                  <c:v>0.000161298935403705</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.000258226297160334</c:v>
+                  <c:v>0.000258226297160337</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.00040517217486935</c:v>
+                  <c:v>0.000405172174869352</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.000623756850555868</c:v>
+                  <c:v>0.000623756850555867</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.000943109088075024</c:v>
+                  <c:v>0.000943109088075034</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>0.00140179474713849</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.00205003378399516</c:v>
+                  <c:v>0.00205003378399515</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.00295219684423966</c:v>
+                  <c:v>0.00295219684423965</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.00418955936927104</c:v>
+                  <c:v>0.00418955936927105</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.00586327700985328</c:v>
+                  <c:v>0.00586327700985334</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>0.00809753187698389</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.0110427855288329</c:v>
+                  <c:v>0.011042785528833</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>0.0148790623657707</c:v>
@@ -1096,7 +1106,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1112,6 +1122,18 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:dLbls>
             <c:delete val="1"/>
           </c:dLbls>
@@ -1433,7 +1455,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1443,27 +1465,29 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="187691776"/>
-        <c:axId val="177598848"/>
+        <c:axId val="343448633"/>
+        <c:axId val="442203584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="187691776"/>
+        <c:axId val="343448633"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines/>
         <c:title>
           <c:tx>
             <c:rich>
               <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1471,28 +1495,43 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="en-US"/>
                   <a:t>Stock Price</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" altLang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
           <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1501,27 +1540,44 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="177598848"/>
+        <c:crossAx val="442203584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="177598848"/>
+        <c:axId val="442203584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
               <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1529,28 +1585,43 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="en-US"/>
                   <a:t>Option Price</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" altLang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
           <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1559,23 +1630,40 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="187691776"/>
+        <c:crossAx val="343448633"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:layout/>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
       <c:txPr>
         <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1589,12 +1677,27 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr lang="en-US"/>
+        <a:defRPr lang="zh-CN"/>
       </a:pPr>
     </a:p>
   </c:txPr>
@@ -1606,9 +1709,552 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="absolute">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -1617,20 +2263,18 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>391558</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>37029</xdr:rowOff>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="图表 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
-        <a:ext cx="9306560" cy="6082030"/>
+        <a:ext cx="9311640" cy="6084570"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1644,7 +2288,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1654,39 +2298,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1765,160 +2409,131 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -1932,13 +2547,13 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4375" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1947,13 +2562,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -1971,7 +2586,7 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>3.05867011259866e-31</v>
+        <v>3.05867011259939e-31</v>
       </c>
       <c r="C2">
         <v>90</v>
@@ -1982,7 +2597,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>7.50874781075163e-29</v>
+        <v>7.50874781074955e-29</v>
       </c>
       <c r="C3">
         <v>89</v>
@@ -1993,7 +2608,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>9.39062163411298e-27</v>
+        <v>9.39062163411014e-27</v>
       </c>
       <c r="C4">
         <v>88</v>
@@ -2004,24 +2619,21 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>6.76816820397579e-25</v>
+        <v>6.76816820397573e-25</v>
       </c>
       <c r="C5">
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>14</v>
       </c>
       <c r="B6">
-        <v>3.08734862207871e-23</v>
+        <v>3.08734862207936e-23</v>
       </c>
       <c r="C6">
         <v>86</v>
-      </c>
-      <c r="E6" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2029,7 +2641,7 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>9.58524833708076e-22</v>
+        <v>9.58524833707799e-22</v>
       </c>
       <c r="C7">
         <v>85</v>
@@ -2040,7 +2652,7 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>2.14514075790149e-20</v>
+        <v>2.1451407579016e-20</v>
       </c>
       <c r="C8">
         <v>84</v>
@@ -2051,7 +2663,7 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>3.62362109271685e-19</v>
+        <v>3.62362109271756e-19</v>
       </c>
       <c r="C9">
         <v>83</v>
@@ -2062,7 +2674,7 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>4.79652828350497e-18</v>
+        <v>4.79652828350383e-18</v>
       </c>
       <c r="C10">
         <v>82</v>
@@ -2073,7 +2685,7 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>5.13087424830622e-17</v>
+        <v>5.13087424830693e-17</v>
       </c>
       <c r="C11">
         <v>81</v>
@@ -2084,7 +2696,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>4.55057692019475e-16</v>
+        <v>4.55057692019494e-16</v>
       </c>
       <c r="C12">
         <v>80</v>
@@ -2095,7 +2707,7 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>3.41899104695241e-15</v>
+        <v>3.4189910469521e-15</v>
       </c>
       <c r="C13">
         <v>79</v>
@@ -2106,7 +2718,7 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>2.216155419496e-14</v>
+        <v>2.21615541949586e-14</v>
       </c>
       <c r="C14">
         <v>78</v>
@@ -2117,7 +2729,7 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>1.25871500209699e-13</v>
+        <v>1.25871500209702e-13</v>
       </c>
       <c r="C15">
         <v>77.0000000000001</v>
@@ -2128,7 +2740,7 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>6.34869264630534e-13</v>
+        <v>6.34869264630531e-13</v>
       </c>
       <c r="C16">
         <v>76.0000000000006</v>
@@ -2139,7 +2751,7 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>2.87668148632475e-12</v>
+        <v>2.87668148632497e-12</v>
       </c>
       <c r="C17">
         <v>75.0000000000029</v>
@@ -2150,7 +2762,7 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>1.18281904759414e-11</v>
+        <v>1.18281904759412e-11</v>
       </c>
       <c r="C18">
         <v>74.0000000000118</v>
@@ -2161,7 +2773,7 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>4.4523095902896e-11</v>
+        <v>4.45230959028935e-11</v>
       </c>
       <c r="C19">
         <v>73.0000000000445</v>
@@ -2172,7 +2784,7 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>1.54615346298118e-10</v>
+        <v>1.54615346298121e-10</v>
       </c>
       <c r="C20">
         <v>72.0000000001546</v>
@@ -2183,7 +2795,7 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>4.98755202579273e-10</v>
+        <v>4.9875520257926e-10</v>
       </c>
       <c r="C21">
         <v>71.0000000004988</v>
@@ -2194,7 +2806,7 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>1.50356460427948e-9</v>
+        <v>1.50356460427955e-9</v>
       </c>
       <c r="C22">
         <v>70.0000000015036</v>
@@ -2205,7 +2817,7 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>4.25893304007247e-9</v>
+        <v>4.25893304007263e-9</v>
       </c>
       <c r="C23">
         <v>69.0000000042589</v>
@@ -2216,7 +2828,7 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>1.13898814502097e-8</v>
+        <v>1.13898814502089e-8</v>
       </c>
       <c r="C24">
         <v>68.0000000113899</v>
@@ -2227,7 +2839,7 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>2.88839890174721e-8</v>
+        <v>2.88839890174723e-8</v>
       </c>
       <c r="C25">
         <v>67.000000028884</v>
@@ -2238,7 +2850,7 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>6.97279111889587e-8</v>
+        <v>6.97279111889579e-8</v>
       </c>
       <c r="C26">
         <v>66.0000000697279</v>
@@ -2249,7 +2861,7 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>1.60803364964302e-7</v>
+        <v>1.60803364964301e-7</v>
       </c>
       <c r="C27">
         <v>65.0000001608034</v>
@@ -2271,7 +2883,7 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>7.54907479781543e-7</v>
+        <v>7.5490747978155e-7</v>
       </c>
       <c r="C29">
         <v>63.0000007549075</v>
@@ -2282,7 +2894,7 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>1.54526312824975e-6</v>
+        <v>1.54526312824977e-6</v>
       </c>
       <c r="C30">
         <v>62.0000015452631</v>
@@ -2293,7 +2905,7 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>3.05544653560435e-6</v>
+        <v>3.05544653560433e-6</v>
       </c>
       <c r="C31">
         <v>61.0000030554465</v>
@@ -2304,7 +2916,7 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>5.84876746876384e-6</v>
+        <v>5.84876746876386e-6</v>
       </c>
       <c r="C32">
         <v>60.0000058487675</v>
@@ -2315,7 +2927,7 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>1.08603996476802e-5</v>
+        <v>1.08603996476803e-5</v>
       </c>
       <c r="C33">
         <v>59.0000108603996</v>
@@ -2326,7 +2938,7 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>1.95984714545931e-5</v>
+        <v>1.95984714545932e-5</v>
       </c>
       <c r="C34">
         <v>58.0000195984715</v>
@@ -2337,7 +2949,7 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>3.44296619825445e-5</v>
+        <v>3.44296619825443e-5</v>
       </c>
       <c r="C35">
         <v>57.000034429662</v>
@@ -2348,7 +2960,7 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>5.89738058627098e-5</v>
+        <v>5.89738058627103e-5</v>
       </c>
       <c r="C36">
         <v>56.0000589738059</v>
@@ -2359,7 +2971,7 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>9.86350206612632e-5</v>
+        <v>9.86350206612641e-5</v>
       </c>
       <c r="C37">
         <v>55.0000986350207</v>
@@ -2370,7 +2982,7 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>0.000161298935403706</v>
+        <v>0.000161298935403705</v>
       </c>
       <c r="C38">
         <v>54.0001612989354</v>
@@ -2381,7 +2993,7 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>0.000258226297160334</v>
+        <v>0.000258226297160337</v>
       </c>
       <c r="C39">
         <v>53.0002582262972</v>
@@ -2392,7 +3004,7 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>0.00040517217486935</v>
+        <v>0.000405172174869352</v>
       </c>
       <c r="C40">
         <v>52.0004051721749</v>
@@ -2403,7 +3015,7 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>0.000623756850555868</v>
+        <v>0.000623756850555867</v>
       </c>
       <c r="C41">
         <v>51.0006237568506</v>
@@ -2414,7 +3026,7 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>0.000943109088075024</v>
+        <v>0.000943109088075034</v>
       </c>
       <c r="C42">
         <v>50.0009431090881</v>
@@ -2436,7 +3048,7 @@
         <v>52</v>
       </c>
       <c r="B44">
-        <v>0.00205003378399516</v>
+        <v>0.00205003378399515</v>
       </c>
       <c r="C44">
         <v>48.002050033784</v>
@@ -2447,7 +3059,7 @@
         <v>53</v>
       </c>
       <c r="B45">
-        <v>0.00295219684423966</v>
+        <v>0.00295219684423965</v>
       </c>
       <c r="C45">
         <v>47.0029521968442</v>
@@ -2458,7 +3070,7 @@
         <v>54</v>
       </c>
       <c r="B46">
-        <v>0.00418955936927104</v>
+        <v>0.00418955936927105</v>
       </c>
       <c r="C46">
         <v>46.0041895593693</v>
@@ -2469,7 +3081,7 @@
         <v>55</v>
       </c>
       <c r="B47">
-        <v>0.00586327700985328</v>
+        <v>0.00586327700985334</v>
       </c>
       <c r="C47">
         <v>45.0058632770099</v>
@@ -2491,7 +3103,7 @@
         <v>57</v>
       </c>
       <c r="B49">
-        <v>0.0110427855288329</v>
+        <v>0.011042785528833</v>
       </c>
       <c r="C49">
         <v>43.0110427855288</v>
@@ -2520,7 +3132,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>